--- a/Coverage Survey/Ethiopia/et_ces_sch_sth_4_individual_202111.xlsx
+++ b/Coverage Survey/Ethiopia/et_ces_sch_sth_4_individual_202111.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="412" uniqueCount="228">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="611" uniqueCount="307">
   <si>
     <t>type</t>
   </si>
@@ -81,9 +81,6 @@
     <t>Please enter a valid age</t>
   </si>
   <si>
-    <t>regioin = ${e_region}</t>
-  </si>
-  <si>
     <t>i_tutor_name</t>
   </si>
   <si>
@@ -102,9 +99,6 @@
     <t>21. Sex (M/F)?</t>
   </si>
   <si>
-    <t>woreda = ${e_woreda}</t>
-  </si>
-  <si>
     <t>select_one yes_no</t>
   </si>
   <si>
@@ -126,6 +120,9 @@
     <t>If you are not able to interview his person</t>
   </si>
   <si>
+    <t>${i_able_to_interview} = 'No'</t>
+  </si>
+  <si>
     <t>i_reason_not_interview_other</t>
   </si>
   <si>
@@ -171,7 +168,7 @@
     <t>25b. If occupation is other:What is your occupation - other?</t>
   </si>
   <si>
-    <t>${i_occupation_other} = 'Other'</t>
+    <t>${i_occupation} = 'Other'</t>
   </si>
   <si>
     <t>i_pregnant_breastfeeding</t>
@@ -324,88 +321,205 @@
     <t>select_one med_swallow</t>
   </si>
   <si>
+    <t>i_how_took_med</t>
+  </si>
+  <si>
     <t>31. If swallowed PZQ or ALB/MBD: How did you take the PZQ and ALB/MBD tablets?</t>
   </si>
   <si>
     <t>${i_pzq_swallow} = 'Yes' or ${i_alb_mbd_swallow} = 'Yes'</t>
   </si>
   <si>
+    <t>select_one yes_no_dn</t>
+  </si>
+  <si>
+    <t>i_dist_wear_mask</t>
+  </si>
+  <si>
     <t>32a. If swallowed PZQ or ALB/MBD Was the distributor wearing a face mask when they gave you the drugs?</t>
   </si>
   <si>
+    <t>i_dist_social_dist</t>
+  </si>
+  <si>
     <t>32b. If swallowed PZQ or ALB/MBD Did the distributor practice social distancing (remained 1 meter apart from others) when they gave you the drugs?</t>
   </si>
   <si>
+    <t>i_dist_present</t>
+  </si>
+  <si>
     <t>33. If swallowed PZQ or ALB/MBD: Was the distributor present when you swallowed the tablets?</t>
   </si>
   <si>
+    <t>i_eat_before</t>
+  </si>
+  <si>
     <t>34. If swallowed PZQ or ALB/MEB: Had you eaten in the two hours before you took the tablets?</t>
   </si>
   <si>
+    <t>select_one decide_med</t>
+  </si>
+  <si>
+    <t>i_who_decide_med</t>
+  </si>
+  <si>
     <t>35a. Who decided whether you took the treatment or not?</t>
   </si>
   <si>
+    <t>i_who_decide_med_other</t>
+  </si>
+  <si>
     <t>35b. If who decided is other: Who decided whether you took the treatment or not - other?</t>
   </si>
   <si>
+    <t>${i_who_decide_med} = 'Other'</t>
+  </si>
+  <si>
+    <t>select_one know_distribution</t>
+  </si>
+  <si>
+    <t>i_know_mda_schedule</t>
+  </si>
+  <si>
     <t>36. Did you know beforehand when and where the MDA would take place? </t>
   </si>
   <si>
+    <t>select_one mda_distance</t>
+  </si>
+  <si>
+    <t>i_distribution_distance</t>
+  </si>
+  <si>
     <t>37. How far was the distribution point from your home/school if walking? (ENTER CODE)</t>
   </si>
   <si>
+    <t>i_receive_ivm</t>
+  </si>
+  <si>
     <t>38a. Were you offered ivermectin (IVM) at the MDA (show tablets)</t>
   </si>
   <si>
+    <t>select_one reason_not_recieved_med</t>
+  </si>
+  <si>
+    <t>i_reason_not_received_ivm</t>
+  </si>
+  <si>
     <t>38b. Reasons for not being offered IVM (ENTER CODE)</t>
   </si>
   <si>
+    <t>${i_receive_ivm} = 'No'</t>
+  </si>
+  <si>
+    <t>i_reason_not_received_ivm_other</t>
+  </si>
+  <si>
     <t>38c. Other reasons for not being offered IVM</t>
   </si>
   <si>
+    <t>${i_reason_not_received_ivm} = 'Other'</t>
+  </si>
+  <si>
+    <t>i_ivm_swallow</t>
+  </si>
+  <si>
     <t>38d. Did you swallow IVM?</t>
   </si>
   <si>
+    <t>${i_receive_ivm} = 'Yes'</t>
+  </si>
+  <si>
+    <t>select_one reason_not_swallow_med</t>
+  </si>
+  <si>
+    <t>i_ivm_reason_not_swallow</t>
+  </si>
+  <si>
     <t>38e. Reasons you did not swallow IVM? (ENTER CODE)</t>
   </si>
   <si>
+    <t>${i_ivm_swallow} = 'No'</t>
+  </si>
+  <si>
+    <t>i_ivm_reason_not_swallow_other</t>
+  </si>
+  <si>
     <t>38f. Other reasons for not swallowing IVM</t>
   </si>
   <si>
+    <t>${i_ivm_reason_not_swallow} = 'Other'</t>
+  </si>
+  <si>
+    <t>i_receive_ivm_and_alb</t>
+  </si>
+  <si>
     <t>39a. Were you offered IVM and ALB at the MDA (show tablets)</t>
   </si>
   <si>
+    <t>i_reason_not_received_ivm_and_alb</t>
+  </si>
+  <si>
     <t>39b. Reasons for not being offered IVM and ALB (ENTER CODE)</t>
   </si>
   <si>
+    <t>${i_receive_ivm_and_alb} = 'No'</t>
+  </si>
+  <si>
+    <t>i_reason_not_received_ivm_and_alb_other</t>
+  </si>
+  <si>
     <t>39c. Other reasons for not being offered IVM and ALB</t>
   </si>
   <si>
+    <t>${i_reason_not_received_ivm_and_alb} = 'Other'</t>
+  </si>
+  <si>
+    <t>i_ivm_and_alb_swallow</t>
+  </si>
+  <si>
     <t>39d. Did you swallow IVM and ALB?</t>
   </si>
   <si>
+    <t>${i_receive_ivm_and_alb} = 'Yes'</t>
+  </si>
+  <si>
+    <t>i_ivm_and_alb_reason_not_swallow</t>
+  </si>
+  <si>
     <t>39e. Reasons you did not swallow IVM and ALB? (ENTER CODE)</t>
   </si>
   <si>
+    <t>${i_ivm_and_alb_swallow} = 'No'</t>
+  </si>
+  <si>
+    <t>i_ivm_and_alb_reason_not_swallow_other</t>
+  </si>
+  <si>
     <t>39f. Other reasons for not swallowing IVM and ALB</t>
   </si>
   <si>
+    <t>${i_ivm_and_alb_reason_not_swallow} = 'Other'</t>
+  </si>
+  <si>
     <t>text</t>
   </si>
   <si>
-    <t>e_notes</t>
+    <t>i_notes</t>
+  </si>
+  <si>
+    <t>Additional notes</t>
   </si>
   <si>
     <t>start</t>
   </si>
   <si>
-    <t>e_start</t>
+    <t>i_start</t>
   </si>
   <si>
     <t>end</t>
   </si>
   <si>
-    <t>e_end</t>
+    <t>i_end</t>
   </si>
   <si>
     <t>list_name</t>
@@ -682,6 +796,129 @@
   </si>
   <si>
     <t>7. Do not remember</t>
+  </si>
+  <si>
+    <t>yes_no_dn</t>
+  </si>
+  <si>
+    <t>Do not know</t>
+  </si>
+  <si>
+    <t>decide_med</t>
+  </si>
+  <si>
+    <t>1. Me</t>
+  </si>
+  <si>
+    <t>2. Father</t>
+  </si>
+  <si>
+    <t>3. Mother</t>
+  </si>
+  <si>
+    <t>4. Other family member</t>
+  </si>
+  <si>
+    <t>5. School teacher</t>
+  </si>
+  <si>
+    <t>6. Village Head</t>
+  </si>
+  <si>
+    <t>7. Traditional Healer</t>
+  </si>
+  <si>
+    <t>8. Health worker or drug distributor</t>
+  </si>
+  <si>
+    <t>9. Other (please specify)</t>
+  </si>
+  <si>
+    <t>10. Did not know about the distribution</t>
+  </si>
+  <si>
+    <t>know_distribution</t>
+  </si>
+  <si>
+    <t>1. Did not know when or where</t>
+  </si>
+  <si>
+    <t>2. Knew when only</t>
+  </si>
+  <si>
+    <t>3. Knew where only</t>
+  </si>
+  <si>
+    <t>4. Knew when and where</t>
+  </si>
+  <si>
+    <t>mda_distance</t>
+  </si>
+  <si>
+    <t>1. 0 – if at home or in school</t>
+  </si>
+  <si>
+    <t>2. Less than 30 minutes</t>
+  </si>
+  <si>
+    <t>3. 30 to 60 minutes</t>
+  </si>
+  <si>
+    <t>4. 1 to 2 hours</t>
+  </si>
+  <si>
+    <t>5. More than 2 hours</t>
+  </si>
+  <si>
+    <t>6. Do not know</t>
+  </si>
+  <si>
+    <t>reason_not_recieved_med</t>
+  </si>
+  <si>
+    <t>1.Underage</t>
+  </si>
+  <si>
+    <t>2.Pregnant</t>
+  </si>
+  <si>
+    <t>3.Breast feeding</t>
+  </si>
+  <si>
+    <t>4.Sick</t>
+  </si>
+  <si>
+    <t>5.Absent</t>
+  </si>
+  <si>
+    <t>6.Didn't know</t>
+  </si>
+  <si>
+    <t>7.Drugs ran out</t>
+  </si>
+  <si>
+    <t>8.Nobody came</t>
+  </si>
+  <si>
+    <t>9.Other</t>
+  </si>
+  <si>
+    <t>reason_not_swallow_med</t>
+  </si>
+  <si>
+    <t>1.Fear of side effects</t>
+  </si>
+  <si>
+    <t>2.Bad taste</t>
+  </si>
+  <si>
+    <t>3.Not sick</t>
+  </si>
+  <si>
+    <t>4.Not enough information given</t>
+  </si>
+  <si>
+    <t>5.Other</t>
   </si>
   <si>
     <t>form_title</t>
@@ -707,8 +944,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
   </numFmts>
@@ -751,26 +988,11 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -782,17 +1004,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -806,14 +1019,29 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -823,29 +1051,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -865,11 +1070,34 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -880,10 +1108,19 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -902,19 +1139,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -926,13 +1151,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -944,43 +1169,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -998,25 +1193,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1034,13 +1223,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1052,37 +1319,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1100,42 +1337,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1156,6 +1358,41 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -1170,168 +1407,168 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="33" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1687,8 +1924,8 @@
   </sheetPr>
   <dimension ref="A1:M52"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.425" defaultRowHeight="12.75"/>
@@ -1781,39 +2018,36 @@
       <c r="H3" t="s">
         <v>20</v>
       </c>
-      <c r="L3" s="13" t="s">
-        <v>21</v>
-      </c>
+      <c r="L3" s="13"/>
     </row>
     <row r="4" ht="38.25" spans="1:10">
       <c r="A4" s="7" t="s">
         <v>12</v>
       </c>
       <c r="B4" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" s="8" t="s">
         <v>22</v>
-      </c>
-      <c r="C4" s="8" t="s">
-        <v>23</v>
       </c>
       <c r="D4" s="8"/>
       <c r="E4" s="7"/>
       <c r="F4" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G4"/>
       <c r="J4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="5" s="6" customFormat="1" spans="1:12">
       <c r="A5" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="C5" s="8" t="s">
         <v>26</v>
-      </c>
-      <c r="C5" s="8" t="s">
-        <v>27</v>
       </c>
       <c r="D5" s="9"/>
       <c r="F5" s="7" t="s">
@@ -1824,22 +2058,22 @@
       <c r="I5" s="11"/>
       <c r="J5" s="11"/>
       <c r="K5" s="11"/>
-      <c r="L5" s="13" t="s">
-        <v>28</v>
-      </c>
+      <c r="L5" s="13"/>
     </row>
     <row r="6" s="6" customFormat="1" spans="1:11">
       <c r="A6" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C6" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="B6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>31</v>
-      </c>
       <c r="D6" s="9"/>
-      <c r="F6" s="7"/>
+      <c r="F6" s="7" t="s">
+        <v>15</v>
+      </c>
       <c r="G6" s="12"/>
       <c r="H6" s="11"/>
       <c r="I6" s="11"/>
@@ -1848,22 +2082,26 @@
     </row>
     <row r="7" s="6" customFormat="1" spans="1:12">
       <c r="A7" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C7" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="D7" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="C7" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="D7" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="F7" s="7"/>
+      <c r="F7" s="7" t="s">
+        <v>15</v>
+      </c>
       <c r="G7" s="12"/>
       <c r="H7" s="11"/>
       <c r="I7" s="11"/>
-      <c r="J7" s="11"/>
+      <c r="J7" s="11" t="s">
+        <v>34</v>
+      </c>
       <c r="K7" s="11"/>
       <c r="L7" s="13"/>
     </row>
@@ -1872,30 +2110,30 @@
         <v>12</v>
       </c>
       <c r="B8" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="C8" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="C8" s="8" t="s">
+      <c r="D8" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="D8" s="9" t="s">
+      <c r="F8" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="J8" t="s">
         <v>38</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="J8" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="7" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B9" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="C9" s="8" t="s">
         <v>40</v>
-      </c>
-      <c r="C9" s="8" t="s">
-        <v>41</v>
       </c>
       <c r="D9" s="9"/>
       <c r="F9" s="7" t="s">
@@ -1904,13 +2142,13 @@
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="7" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B10" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="C10" s="10" t="s">
         <v>42</v>
-      </c>
-      <c r="C10" s="10" t="s">
-        <v>43</v>
       </c>
       <c r="D10" s="10"/>
       <c r="F10" s="7" t="s">
@@ -1919,22 +2157,22 @@
     </row>
     <row r="11" spans="1:10">
       <c r="A11" t="s">
+        <v>43</v>
+      </c>
+      <c r="B11" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="B11" s="7" t="s">
+      <c r="C11" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="C11" s="10" t="s">
+      <c r="D11" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="D11" s="10" t="s">
+      <c r="F11" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="J11" t="s">
         <v>47</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="J11" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="12" ht="25.5" spans="1:11">
@@ -1942,72 +2180,72 @@
         <v>12</v>
       </c>
       <c r="B12" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="C12" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="C12" s="10" t="s">
+      <c r="D12" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="J12" s="7" t="s">
         <v>50</v>
-      </c>
-      <c r="D12" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="J12" s="7" t="s">
-        <v>51</v>
       </c>
       <c r="K12" s="11"/>
     </row>
     <row r="13" ht="25.5" spans="1:10">
       <c r="A13" s="7" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B13" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="C13" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="C13" s="10" t="s">
-        <v>53</v>
-      </c>
       <c r="D13" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="J13" t="s">
         <v>47</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="J13" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="14" spans="1:10">
       <c r="A14" s="7" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B14" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="C14" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="C14" s="10" t="s">
+      <c r="D14" s="10" t="s">
         <v>55</v>
-      </c>
-      <c r="D14" s="10" t="s">
-        <v>56</v>
       </c>
       <c r="F14" s="7" t="s">
         <v>15</v>
       </c>
       <c r="G14" s="7"/>
       <c r="J14" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="15" ht="25.5" spans="1:10">
       <c r="A15" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="B15" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="B15" s="11" t="s">
+      <c r="C15" s="10" t="s">
         <v>59</v>
-      </c>
-      <c r="C15" s="10" t="s">
-        <v>60</v>
       </c>
       <c r="D15" s="10"/>
       <c r="F15" s="7" t="s">
@@ -2015,48 +2253,56 @@
       </c>
       <c r="G15" s="11"/>
       <c r="J15" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="16" ht="25.5" spans="1:10">
       <c r="A16" t="s">
+        <v>61</v>
+      </c>
+      <c r="B16" t="s">
         <v>62</v>
       </c>
-      <c r="B16" t="s">
+      <c r="C16" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="C16" s="10" t="s">
+      <c r="D16" s="10"/>
+      <c r="F16" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="J16" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="B17" t="s">
         <v>64</v>
       </c>
-      <c r="D16" s="10"/>
-      <c r="F16" s="7"/>
-      <c r="J16" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="A17" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="B17" t="s">
+      <c r="C17" t="s">
         <v>65</v>
       </c>
-      <c r="C17" t="s">
-        <v>66</v>
+      <c r="F17" s="7" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="18" spans="1:10">
       <c r="A18" t="s">
+        <v>66</v>
+      </c>
+      <c r="B18" t="s">
         <v>67</v>
       </c>
-      <c r="B18" t="s">
+      <c r="C18" t="s">
         <v>68</v>
       </c>
-      <c r="C18" t="s">
+      <c r="F18" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="J18" t="s">
         <v>69</v>
-      </c>
-      <c r="J18" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -2064,49 +2310,61 @@
         <v>12</v>
       </c>
       <c r="B19" t="s">
+        <v>70</v>
+      </c>
+      <c r="C19" t="s">
         <v>71</v>
       </c>
-      <c r="C19" t="s">
+      <c r="F19" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="J19" t="s">
         <v>72</v>
       </c>
-      <c r="J19" t="s">
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="20" spans="1:3">
-      <c r="A20" t="s">
+      <c r="B20" t="s">
         <v>74</v>
       </c>
-      <c r="B20" t="s">
+      <c r="C20" t="s">
         <v>75</v>
       </c>
-      <c r="C20" t="s">
+      <c r="F20" s="7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="B21" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="21" spans="1:3">
-      <c r="A21" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="B21" t="s">
+      <c r="C21" t="s">
         <v>77</v>
       </c>
-      <c r="C21" t="s">
-        <v>78</v>
+      <c r="F21" s="7" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="22" spans="1:10">
       <c r="A22" t="s">
+        <v>78</v>
+      </c>
+      <c r="B22" t="s">
         <v>79</v>
       </c>
-      <c r="B22" t="s">
+      <c r="C22" t="s">
         <v>80</v>
       </c>
-      <c r="C22" t="s">
+      <c r="F22" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="J22" t="s">
         <v>81</v>
-      </c>
-      <c r="J22" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="23" spans="1:10">
@@ -2114,52 +2372,64 @@
         <v>12</v>
       </c>
       <c r="B23" t="s">
+        <v>82</v>
+      </c>
+      <c r="C23" t="s">
         <v>83</v>
       </c>
-      <c r="C23" t="s">
+      <c r="F23" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="J23" t="s">
         <v>84</v>
-      </c>
-      <c r="J23" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="24" spans="1:10">
       <c r="A24" t="s">
+        <v>85</v>
+      </c>
+      <c r="B24" t="s">
         <v>86</v>
       </c>
-      <c r="B24" t="s">
+      <c r="C24" t="s">
         <v>87</v>
       </c>
-      <c r="C24" t="s">
+      <c r="F24" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="J24" t="s">
         <v>88</v>
       </c>
-      <c r="J24" t="s">
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="B25" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="25" spans="1:3">
-      <c r="A25" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="B25" t="s">
+      <c r="C25" t="s">
         <v>90</v>
       </c>
-      <c r="C25" t="s">
-        <v>91</v>
+      <c r="F25" s="7" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="26" spans="1:10">
       <c r="A26" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B26" t="s">
+        <v>91</v>
+      </c>
+      <c r="C26" t="s">
         <v>92</v>
       </c>
-      <c r="C26" t="s">
+      <c r="F26" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="J26" t="s">
         <v>93</v>
-      </c>
-      <c r="J26" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="27" spans="1:10">
@@ -2167,174 +2437,402 @@
         <v>12</v>
       </c>
       <c r="B27" t="s">
+        <v>94</v>
+      </c>
+      <c r="C27" t="s">
         <v>95</v>
       </c>
-      <c r="C27" t="s">
+      <c r="F27" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="J27" t="s">
         <v>96</v>
-      </c>
-      <c r="J27" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="28" spans="1:10">
       <c r="A28" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B28" t="s">
+        <v>97</v>
+      </c>
+      <c r="C28" t="s">
         <v>98</v>
       </c>
-      <c r="C28" t="s">
+      <c r="F28" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="J28" t="s">
         <v>99</v>
-      </c>
-      <c r="J28" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="29" spans="1:10">
       <c r="A29" t="s">
+        <v>100</v>
+      </c>
+      <c r="B29" t="s">
         <v>101</v>
       </c>
       <c r="C29" t="s">
         <v>102</v>
       </c>
+      <c r="F29" s="7" t="s">
+        <v>15</v>
+      </c>
       <c r="J29" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="30" spans="3:10">
+    <row r="30" spans="1:10">
+      <c r="A30" t="s">
+        <v>104</v>
+      </c>
+      <c r="B30" t="s">
+        <v>105</v>
+      </c>
       <c r="C30" t="s">
-        <v>104</v>
+        <v>106</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>15</v>
       </c>
       <c r="J30" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="31" spans="3:10">
+    <row r="31" spans="1:10">
+      <c r="A31" t="s">
+        <v>104</v>
+      </c>
+      <c r="B31" t="s">
+        <v>107</v>
+      </c>
       <c r="C31" t="s">
-        <v>105</v>
+        <v>108</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>15</v>
       </c>
       <c r="J31" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="32" spans="3:10">
+    <row r="32" spans="1:10">
+      <c r="A32" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="B32" t="s">
+        <v>109</v>
+      </c>
       <c r="C32" t="s">
-        <v>106</v>
+        <v>110</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>15</v>
       </c>
       <c r="J32" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="33" spans="3:10">
+    <row r="33" spans="1:10">
+      <c r="A33" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="B33" t="s">
+        <v>111</v>
+      </c>
       <c r="C33" t="s">
-        <v>107</v>
+        <v>112</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>15</v>
       </c>
       <c r="J33" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="34" spans="3:3">
+    <row r="34" spans="1:6">
+      <c r="A34" t="s">
+        <v>113</v>
+      </c>
+      <c r="B34" t="s">
+        <v>114</v>
+      </c>
       <c r="C34" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="35" spans="3:3">
+        <v>115</v>
+      </c>
+      <c r="F34" s="7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10">
+      <c r="A35" t="s">
+        <v>12</v>
+      </c>
+      <c r="B35" t="s">
+        <v>116</v>
+      </c>
       <c r="C35" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="36" spans="3:3">
+        <v>117</v>
+      </c>
+      <c r="F35" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="J35" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
+      <c r="A36" t="s">
+        <v>119</v>
+      </c>
+      <c r="B36" t="s">
+        <v>120</v>
+      </c>
       <c r="C36" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="37" spans="3:3">
+        <v>121</v>
+      </c>
+      <c r="F36" s="7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
+      <c r="A37" t="s">
+        <v>122</v>
+      </c>
+      <c r="B37" t="s">
+        <v>123</v>
+      </c>
       <c r="C37" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="38" spans="3:3">
+        <v>124</v>
+      </c>
+      <c r="F37" s="7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
+      <c r="A38" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="B38" t="s">
+        <v>125</v>
+      </c>
       <c r="C38" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="39" spans="3:3">
+        <v>126</v>
+      </c>
+      <c r="F38" s="7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10">
+      <c r="A39" t="s">
+        <v>127</v>
+      </c>
+      <c r="B39" t="s">
+        <v>128</v>
+      </c>
       <c r="C39" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="40" spans="3:3">
+        <v>129</v>
+      </c>
+      <c r="F39" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="J39" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10">
+      <c r="A40" t="s">
+        <v>12</v>
+      </c>
+      <c r="B40" t="s">
+        <v>131</v>
+      </c>
       <c r="C40" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="41" spans="3:3">
+        <v>132</v>
+      </c>
+      <c r="F40" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="J40" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10">
+      <c r="A41" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="B41" t="s">
+        <v>134</v>
+      </c>
       <c r="C41" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="42" spans="3:3">
+        <v>135</v>
+      </c>
+      <c r="F41" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="J41" s="10" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10">
+      <c r="A42" t="s">
+        <v>137</v>
+      </c>
+      <c r="B42" t="s">
+        <v>138</v>
+      </c>
       <c r="C42" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="43" spans="3:3">
+        <v>139</v>
+      </c>
+      <c r="F42" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="J42" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10">
+      <c r="A43" t="s">
+        <v>12</v>
+      </c>
+      <c r="B43" t="s">
+        <v>141</v>
+      </c>
       <c r="C43" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="44" spans="3:3">
+        <v>142</v>
+      </c>
+      <c r="F43" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="J43" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
+      <c r="A44" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="B44" t="s">
+        <v>144</v>
+      </c>
       <c r="C44" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="45" spans="3:3">
+        <v>145</v>
+      </c>
+      <c r="F44" s="7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10">
+      <c r="A45" t="s">
+        <v>127</v>
+      </c>
+      <c r="B45" t="s">
+        <v>146</v>
+      </c>
       <c r="C45" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="46" spans="3:3">
+        <v>147</v>
+      </c>
+      <c r="F45" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="J45" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10">
+      <c r="A46" t="s">
+        <v>12</v>
+      </c>
+      <c r="B46" t="s">
+        <v>149</v>
+      </c>
       <c r="C46" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="47" spans="3:3">
+        <v>150</v>
+      </c>
+      <c r="F46" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="J46" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="47" ht="25.5" spans="1:10">
+      <c r="A47" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="B47" t="s">
+        <v>152</v>
+      </c>
       <c r="C47" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="48" spans="3:3">
+        <v>153</v>
+      </c>
+      <c r="F47" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="J47" s="10" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10">
+      <c r="A48" t="s">
+        <v>137</v>
+      </c>
+      <c r="B48" t="s">
+        <v>155</v>
+      </c>
       <c r="C48" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="49" spans="3:3">
+        <v>156</v>
+      </c>
+      <c r="F48" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="J48" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10">
+      <c r="A49" t="s">
+        <v>12</v>
+      </c>
+      <c r="B49" t="s">
+        <v>158</v>
+      </c>
       <c r="C49" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2">
+        <v>159</v>
+      </c>
+      <c r="F49" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="J49" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
       <c r="A50" t="s">
-        <v>124</v>
+        <v>161</v>
       </c>
       <c r="B50" t="s">
-        <v>125</v>
+        <v>162</v>
+      </c>
+      <c r="C50" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="51" spans="1:2">
       <c r="A51" t="s">
-        <v>126</v>
+        <v>164</v>
       </c>
       <c r="B51" t="s">
-        <v>127</v>
+        <v>165</v>
       </c>
     </row>
     <row r="52" spans="1:2">
       <c r="A52" t="s">
-        <v>128</v>
+        <v>166</v>
       </c>
       <c r="B52" t="s">
-        <v>129</v>
+        <v>167</v>
       </c>
     </row>
   </sheetData>
@@ -2353,17 +2851,17 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:G90"/>
+  <dimension ref="A1:G133"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A53" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A104" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="A84" sqref="A84:A90"/>
+      <selection pane="bottomLeft" activeCell="A119" sqref="A119:A127"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.425" defaultRowHeight="12.75" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="17.5" customWidth="1"/>
+    <col min="1" max="1" width="23.75" customWidth="1"/>
     <col min="2" max="4" width="19.8583333333333" customWidth="1"/>
     <col min="5" max="5" width="13.2833333333333" customWidth="1"/>
     <col min="6" max="6" width="16" customWidth="1"/>
@@ -2371,7 +2869,7 @@
   <sheetData>
     <row r="1" s="3" customFormat="1" spans="1:7">
       <c r="A1" s="4" t="s">
-        <v>130</v>
+        <v>168</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>1</v>
@@ -2380,881 +2878,1288 @@
         <v>2</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>131</v>
+        <v>169</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>132</v>
+        <v>170</v>
       </c>
       <c r="F1" s="4"/>
       <c r="G1" s="4"/>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>133</v>
+        <v>171</v>
       </c>
       <c r="B2" t="s">
-        <v>134</v>
+        <v>172</v>
       </c>
       <c r="C2" t="s">
-        <v>134</v>
+        <v>172</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>133</v>
+        <v>171</v>
       </c>
       <c r="B3" t="s">
-        <v>135</v>
+        <v>173</v>
       </c>
       <c r="C3" t="s">
-        <v>135</v>
+        <v>173</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>136</v>
+        <v>174</v>
       </c>
       <c r="B5" t="s">
-        <v>137</v>
+        <v>175</v>
       </c>
       <c r="C5" t="s">
-        <v>137</v>
+        <v>175</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>136</v>
+        <v>174</v>
       </c>
       <c r="B6" t="s">
-        <v>138</v>
+        <v>176</v>
       </c>
       <c r="C6" t="s">
-        <v>138</v>
+        <v>176</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B8" t="s">
-        <v>139</v>
+        <v>177</v>
       </c>
       <c r="C8" t="s">
-        <v>139</v>
+        <v>177</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B9" t="s">
-        <v>140</v>
+        <v>178</v>
       </c>
       <c r="C9" t="s">
-        <v>140</v>
+        <v>178</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B10" t="s">
-        <v>141</v>
+        <v>179</v>
       </c>
       <c r="C10" t="s">
-        <v>142</v>
+        <v>180</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>143</v>
+        <v>181</v>
       </c>
       <c r="B12" t="s">
-        <v>144</v>
+        <v>182</v>
       </c>
       <c r="C12" t="s">
-        <v>144</v>
+        <v>182</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="s">
-        <v>143</v>
+        <v>181</v>
       </c>
       <c r="B13" t="s">
-        <v>145</v>
+        <v>183</v>
       </c>
       <c r="C13" t="s">
-        <v>145</v>
+        <v>183</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="s">
-        <v>143</v>
+        <v>181</v>
       </c>
       <c r="B14" t="s">
-        <v>146</v>
+        <v>184</v>
       </c>
       <c r="C14" t="s">
-        <v>146</v>
+        <v>184</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="s">
-        <v>143</v>
+        <v>181</v>
       </c>
       <c r="B15" t="s">
-        <v>147</v>
+        <v>185</v>
       </c>
       <c r="C15" t="s">
-        <v>147</v>
+        <v>185</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" t="s">
-        <v>143</v>
+        <v>181</v>
       </c>
       <c r="B16" t="s">
-        <v>148</v>
+        <v>186</v>
       </c>
       <c r="C16" t="s">
-        <v>148</v>
+        <v>186</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="s">
-        <v>143</v>
+        <v>181</v>
       </c>
       <c r="B17" t="s">
-        <v>149</v>
+        <v>187</v>
       </c>
       <c r="C17" t="s">
-        <v>149</v>
+        <v>187</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" t="s">
-        <v>143</v>
+        <v>181</v>
       </c>
       <c r="B18" t="s">
-        <v>150</v>
+        <v>188</v>
       </c>
       <c r="C18" t="s">
-        <v>150</v>
+        <v>188</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" t="s">
-        <v>143</v>
+        <v>181</v>
       </c>
       <c r="B19" t="s">
-        <v>151</v>
+        <v>189</v>
       </c>
       <c r="C19" t="s">
-        <v>151</v>
+        <v>189</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" t="s">
-        <v>143</v>
+        <v>181</v>
       </c>
       <c r="B20" t="s">
-        <v>152</v>
+        <v>190</v>
       </c>
       <c r="C20" t="s">
-        <v>152</v>
+        <v>190</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" t="s">
-        <v>143</v>
+        <v>181</v>
       </c>
       <c r="B21" t="s">
-        <v>153</v>
+        <v>191</v>
       </c>
       <c r="C21" t="s">
-        <v>153</v>
+        <v>191</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" t="s">
-        <v>143</v>
+        <v>181</v>
       </c>
       <c r="B22" t="s">
-        <v>141</v>
+        <v>179</v>
       </c>
       <c r="C22" t="s">
-        <v>154</v>
+        <v>192</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" t="s">
-        <v>155</v>
+        <v>193</v>
       </c>
       <c r="B24" t="s">
-        <v>156</v>
+        <v>194</v>
       </c>
       <c r="C24" t="s">
-        <v>156</v>
+        <v>194</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" t="s">
-        <v>155</v>
+        <v>193</v>
       </c>
       <c r="B25" t="s">
-        <v>157</v>
+        <v>195</v>
       </c>
       <c r="C25" t="s">
-        <v>157</v>
+        <v>195</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" t="s">
-        <v>158</v>
+        <v>196</v>
       </c>
       <c r="B27" t="s">
-        <v>159</v>
+        <v>197</v>
       </c>
       <c r="C27" t="s">
-        <v>159</v>
+        <v>197</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" t="s">
-        <v>158</v>
+        <v>196</v>
       </c>
       <c r="B28" t="s">
-        <v>160</v>
+        <v>198</v>
       </c>
       <c r="C28" t="s">
-        <v>160</v>
+        <v>198</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" t="s">
-        <v>158</v>
+        <v>196</v>
       </c>
       <c r="B29" t="s">
-        <v>161</v>
+        <v>199</v>
       </c>
       <c r="C29" t="s">
-        <v>161</v>
+        <v>199</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" t="s">
-        <v>162</v>
+        <v>200</v>
       </c>
       <c r="B31" t="s">
-        <v>163</v>
+        <v>201</v>
       </c>
       <c r="C31" t="s">
-        <v>163</v>
+        <v>201</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" t="s">
-        <v>162</v>
+        <v>200</v>
       </c>
       <c r="B32" t="s">
-        <v>164</v>
+        <v>202</v>
       </c>
       <c r="C32" t="s">
-        <v>164</v>
+        <v>202</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" t="s">
-        <v>162</v>
+        <v>200</v>
       </c>
       <c r="B33" t="s">
-        <v>165</v>
+        <v>203</v>
       </c>
       <c r="C33" t="s">
-        <v>165</v>
+        <v>203</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" t="s">
-        <v>162</v>
+        <v>200</v>
       </c>
       <c r="B34" t="s">
-        <v>166</v>
+        <v>204</v>
       </c>
       <c r="C34" t="s">
-        <v>166</v>
+        <v>204</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" t="s">
-        <v>162</v>
+        <v>200</v>
       </c>
       <c r="B35" t="s">
-        <v>167</v>
+        <v>205</v>
       </c>
       <c r="C35" t="s">
-        <v>167</v>
+        <v>205</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36" t="s">
-        <v>162</v>
+        <v>200</v>
       </c>
       <c r="B36" t="s">
-        <v>168</v>
+        <v>206</v>
       </c>
       <c r="C36" t="s">
-        <v>168</v>
+        <v>206</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37" t="s">
-        <v>162</v>
+        <v>200</v>
       </c>
       <c r="B37" t="s">
-        <v>169</v>
+        <v>207</v>
       </c>
       <c r="C37" t="s">
-        <v>169</v>
+        <v>207</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38" t="s">
-        <v>162</v>
+        <v>200</v>
       </c>
       <c r="B38" t="s">
-        <v>170</v>
+        <v>208</v>
       </c>
       <c r="C38" t="s">
-        <v>170</v>
+        <v>208</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39" t="s">
-        <v>162</v>
+        <v>200</v>
       </c>
       <c r="B39" t="s">
-        <v>171</v>
+        <v>209</v>
       </c>
       <c r="C39" t="s">
-        <v>171</v>
+        <v>209</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40" t="s">
-        <v>162</v>
+        <v>200</v>
       </c>
       <c r="B40" t="s">
-        <v>172</v>
+        <v>210</v>
       </c>
       <c r="C40" t="s">
-        <v>172</v>
+        <v>210</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41" t="s">
-        <v>162</v>
+        <v>200</v>
       </c>
       <c r="B41" t="s">
-        <v>141</v>
+        <v>179</v>
       </c>
       <c r="C41" t="s">
-        <v>154</v>
+        <v>192</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43" t="s">
-        <v>173</v>
+        <v>211</v>
       </c>
       <c r="B43" t="s">
-        <v>174</v>
+        <v>212</v>
       </c>
       <c r="C43" t="s">
-        <v>174</v>
+        <v>212</v>
       </c>
     </row>
     <row r="44" spans="1:3">
       <c r="A44" t="s">
-        <v>173</v>
+        <v>211</v>
       </c>
       <c r="B44" t="s">
-        <v>175</v>
+        <v>213</v>
       </c>
       <c r="C44" t="s">
-        <v>175</v>
+        <v>213</v>
       </c>
     </row>
     <row r="45" spans="1:3">
       <c r="A45" t="s">
-        <v>173</v>
+        <v>211</v>
       </c>
       <c r="B45" t="s">
-        <v>176</v>
+        <v>214</v>
       </c>
       <c r="C45" t="s">
-        <v>176</v>
+        <v>214</v>
       </c>
     </row>
     <row r="46" spans="1:3">
       <c r="A46" t="s">
-        <v>173</v>
+        <v>211</v>
       </c>
       <c r="B46" t="s">
-        <v>177</v>
+        <v>215</v>
       </c>
       <c r="C46" t="s">
-        <v>177</v>
+        <v>215</v>
       </c>
     </row>
     <row r="47" spans="1:3">
       <c r="A47" t="s">
-        <v>173</v>
+        <v>211</v>
       </c>
       <c r="B47" t="s">
-        <v>178</v>
+        <v>216</v>
       </c>
       <c r="C47" t="s">
-        <v>178</v>
+        <v>216</v>
       </c>
     </row>
     <row r="49" spans="1:3">
       <c r="A49" t="s">
-        <v>179</v>
+        <v>217</v>
       </c>
       <c r="B49" t="s">
-        <v>180</v>
+        <v>218</v>
       </c>
       <c r="C49" t="s">
-        <v>180</v>
+        <v>218</v>
       </c>
     </row>
     <row r="50" spans="1:3">
       <c r="A50" t="s">
-        <v>179</v>
+        <v>217</v>
       </c>
       <c r="B50" t="s">
-        <v>181</v>
+        <v>219</v>
       </c>
       <c r="C50" t="s">
-        <v>181</v>
+        <v>219</v>
       </c>
     </row>
     <row r="51" spans="1:3">
       <c r="A51" t="s">
-        <v>179</v>
+        <v>217</v>
       </c>
       <c r="B51" t="s">
-        <v>182</v>
+        <v>220</v>
       </c>
       <c r="C51" t="s">
-        <v>182</v>
+        <v>220</v>
       </c>
     </row>
     <row r="52" spans="1:3">
       <c r="A52" t="s">
-        <v>179</v>
+        <v>217</v>
       </c>
       <c r="B52" t="s">
-        <v>183</v>
+        <v>221</v>
       </c>
       <c r="C52" t="s">
-        <v>183</v>
+        <v>221</v>
       </c>
     </row>
     <row r="53" spans="1:3">
       <c r="A53" t="s">
-        <v>179</v>
+        <v>217</v>
       </c>
       <c r="B53" t="s">
-        <v>184</v>
+        <v>222</v>
       </c>
       <c r="C53" t="s">
-        <v>184</v>
+        <v>222</v>
       </c>
     </row>
     <row r="54" spans="1:3">
       <c r="A54" t="s">
-        <v>179</v>
+        <v>217</v>
       </c>
       <c r="B54" t="s">
-        <v>185</v>
+        <v>223</v>
       </c>
       <c r="C54" t="s">
-        <v>185</v>
+        <v>223</v>
       </c>
     </row>
     <row r="55" spans="1:3">
       <c r="A55" t="s">
-        <v>179</v>
+        <v>217</v>
       </c>
       <c r="B55" t="s">
-        <v>186</v>
+        <v>224</v>
       </c>
       <c r="C55" t="s">
-        <v>186</v>
+        <v>224</v>
       </c>
     </row>
     <row r="56" spans="1:3">
       <c r="A56" t="s">
-        <v>179</v>
+        <v>217</v>
       </c>
       <c r="B56" t="s">
-        <v>187</v>
+        <v>225</v>
       </c>
       <c r="C56" t="s">
-        <v>187</v>
+        <v>225</v>
       </c>
     </row>
     <row r="57" spans="1:3">
       <c r="A57" t="s">
-        <v>179</v>
+        <v>217</v>
       </c>
       <c r="B57" t="s">
-        <v>188</v>
+        <v>226</v>
       </c>
       <c r="C57" t="s">
-        <v>188</v>
+        <v>226</v>
       </c>
     </row>
     <row r="58" spans="1:3">
       <c r="A58" t="s">
-        <v>179</v>
+        <v>217</v>
       </c>
       <c r="B58" t="s">
-        <v>189</v>
+        <v>227</v>
       </c>
       <c r="C58" t="s">
-        <v>189</v>
+        <v>227</v>
       </c>
     </row>
     <row r="59" spans="1:3">
       <c r="A59" t="s">
-        <v>179</v>
+        <v>217</v>
       </c>
       <c r="B59" t="s">
-        <v>190</v>
+        <v>228</v>
       </c>
       <c r="C59" t="s">
-        <v>190</v>
+        <v>228</v>
       </c>
     </row>
     <row r="60" spans="1:3">
       <c r="A60" t="s">
-        <v>179</v>
+        <v>217</v>
       </c>
       <c r="B60" t="s">
-        <v>191</v>
+        <v>229</v>
       </c>
       <c r="C60" t="s">
-        <v>191</v>
+        <v>229</v>
       </c>
     </row>
     <row r="61" spans="1:3">
       <c r="A61" t="s">
-        <v>179</v>
+        <v>217</v>
       </c>
       <c r="B61" t="s">
-        <v>192</v>
+        <v>230</v>
       </c>
       <c r="C61" t="s">
-        <v>192</v>
+        <v>230</v>
       </c>
     </row>
     <row r="62" spans="1:3">
       <c r="A62" t="s">
-        <v>179</v>
+        <v>217</v>
       </c>
       <c r="B62" t="s">
-        <v>193</v>
+        <v>231</v>
       </c>
       <c r="C62" t="s">
-        <v>193</v>
+        <v>231</v>
       </c>
     </row>
     <row r="63" spans="1:3">
       <c r="A63" t="s">
-        <v>179</v>
+        <v>217</v>
       </c>
       <c r="B63" t="s">
-        <v>194</v>
+        <v>232</v>
       </c>
       <c r="C63" t="s">
-        <v>194</v>
+        <v>232</v>
       </c>
     </row>
     <row r="64" spans="1:3">
       <c r="A64" t="s">
-        <v>179</v>
+        <v>217</v>
       </c>
       <c r="B64" t="s">
-        <v>195</v>
+        <v>233</v>
       </c>
       <c r="C64" t="s">
-        <v>195</v>
+        <v>233</v>
       </c>
     </row>
     <row r="65" spans="1:3">
       <c r="A65" t="s">
-        <v>179</v>
+        <v>217</v>
       </c>
       <c r="B65" t="s">
-        <v>196</v>
+        <v>234</v>
       </c>
       <c r="C65" t="s">
-        <v>196</v>
+        <v>234</v>
       </c>
     </row>
     <row r="66" spans="1:3">
       <c r="A66" t="s">
-        <v>179</v>
+        <v>217</v>
       </c>
       <c r="B66" t="s">
-        <v>197</v>
+        <v>235</v>
       </c>
       <c r="C66" t="s">
-        <v>197</v>
+        <v>235</v>
       </c>
     </row>
     <row r="67" spans="1:3">
       <c r="A67" t="s">
-        <v>179</v>
+        <v>217</v>
       </c>
       <c r="B67" t="s">
-        <v>198</v>
+        <v>236</v>
       </c>
       <c r="C67" t="s">
-        <v>198</v>
+        <v>236</v>
       </c>
     </row>
     <row r="68" spans="1:3">
       <c r="A68" t="s">
-        <v>179</v>
+        <v>217</v>
       </c>
       <c r="B68" t="s">
-        <v>199</v>
+        <v>237</v>
       </c>
       <c r="C68" t="s">
-        <v>199</v>
+        <v>237</v>
       </c>
     </row>
     <row r="69" spans="1:3">
       <c r="A69" t="s">
-        <v>179</v>
+        <v>217</v>
       </c>
       <c r="B69" t="s">
-        <v>200</v>
+        <v>238</v>
       </c>
       <c r="C69" t="s">
-        <v>200</v>
+        <v>238</v>
       </c>
     </row>
     <row r="70" spans="1:3">
       <c r="A70" t="s">
-        <v>179</v>
+        <v>217</v>
       </c>
       <c r="B70" t="s">
-        <v>201</v>
+        <v>239</v>
       </c>
       <c r="C70" t="s">
-        <v>201</v>
+        <v>239</v>
       </c>
     </row>
     <row r="71" spans="1:3">
       <c r="A71" t="s">
-        <v>179</v>
+        <v>217</v>
       </c>
       <c r="B71" t="s">
-        <v>202</v>
+        <v>240</v>
       </c>
       <c r="C71" t="s">
-        <v>202</v>
+        <v>240</v>
       </c>
     </row>
     <row r="72" spans="1:3">
       <c r="A72" t="s">
-        <v>179</v>
+        <v>217</v>
       </c>
       <c r="B72" t="s">
-        <v>203</v>
+        <v>241</v>
       </c>
       <c r="C72" t="s">
-        <v>203</v>
+        <v>241</v>
       </c>
     </row>
     <row r="73" spans="1:3">
       <c r="A73" t="s">
+        <v>217</v>
+      </c>
+      <c r="B73" t="s">
         <v>179</v>
       </c>
-      <c r="B73" t="s">
-        <v>141</v>
-      </c>
       <c r="C73" t="s">
-        <v>204</v>
+        <v>242</v>
       </c>
     </row>
     <row r="75" spans="1:3">
       <c r="A75" t="s">
-        <v>205</v>
+        <v>243</v>
       </c>
       <c r="B75" t="s">
-        <v>206</v>
+        <v>244</v>
       </c>
       <c r="C75" t="s">
-        <v>206</v>
+        <v>244</v>
       </c>
     </row>
     <row r="76" spans="1:3">
       <c r="A76" t="s">
-        <v>205</v>
+        <v>243</v>
       </c>
       <c r="B76" t="s">
-        <v>207</v>
+        <v>245</v>
       </c>
       <c r="C76" t="s">
-        <v>207</v>
+        <v>245</v>
       </c>
     </row>
     <row r="77" spans="1:3">
       <c r="A77" t="s">
-        <v>205</v>
+        <v>243</v>
       </c>
       <c r="B77" t="s">
-        <v>208</v>
+        <v>246</v>
       </c>
       <c r="C77" t="s">
-        <v>208</v>
+        <v>246</v>
       </c>
     </row>
     <row r="78" spans="1:3">
       <c r="A78" t="s">
-        <v>205</v>
+        <v>243</v>
       </c>
       <c r="B78" t="s">
-        <v>209</v>
+        <v>247</v>
       </c>
       <c r="C78" t="s">
-        <v>209</v>
+        <v>247</v>
       </c>
     </row>
     <row r="79" spans="1:3">
       <c r="A79" t="s">
-        <v>205</v>
+        <v>243</v>
       </c>
       <c r="B79" t="s">
-        <v>210</v>
+        <v>248</v>
       </c>
       <c r="C79" t="s">
-        <v>210</v>
+        <v>248</v>
       </c>
     </row>
     <row r="80" spans="1:3">
       <c r="A80" t="s">
-        <v>205</v>
+        <v>243</v>
       </c>
       <c r="B80" t="s">
-        <v>211</v>
+        <v>249</v>
       </c>
       <c r="C80" t="s">
-        <v>211</v>
+        <v>249</v>
       </c>
     </row>
     <row r="81" spans="1:3">
       <c r="A81" t="s">
-        <v>205</v>
+        <v>243</v>
       </c>
       <c r="B81" t="s">
-        <v>212</v>
+        <v>250</v>
       </c>
       <c r="C81" t="s">
-        <v>212</v>
+        <v>250</v>
       </c>
     </row>
     <row r="82" spans="1:3">
       <c r="A82" t="s">
-        <v>205</v>
+        <v>243</v>
       </c>
       <c r="B82" t="s">
-        <v>213</v>
+        <v>251</v>
       </c>
       <c r="C82" t="s">
-        <v>213</v>
+        <v>251</v>
       </c>
     </row>
     <row r="84" spans="1:3">
       <c r="A84" t="s">
-        <v>214</v>
+        <v>252</v>
       </c>
       <c r="B84" t="s">
-        <v>215</v>
+        <v>253</v>
       </c>
       <c r="C84" t="s">
-        <v>215</v>
+        <v>253</v>
       </c>
     </row>
     <row r="85" spans="1:3">
       <c r="A85" t="s">
-        <v>214</v>
+        <v>252</v>
       </c>
       <c r="B85" t="s">
-        <v>216</v>
+        <v>254</v>
       </c>
       <c r="C85" t="s">
-        <v>216</v>
+        <v>254</v>
       </c>
     </row>
     <row r="86" spans="1:3">
       <c r="A86" t="s">
-        <v>214</v>
+        <v>252</v>
       </c>
       <c r="B86" t="s">
-        <v>217</v>
+        <v>255</v>
       </c>
       <c r="C86" t="s">
-        <v>217</v>
+        <v>255</v>
       </c>
     </row>
     <row r="87" spans="1:3">
       <c r="A87" t="s">
-        <v>214</v>
+        <v>252</v>
       </c>
       <c r="B87" t="s">
-        <v>218</v>
+        <v>256</v>
       </c>
       <c r="C87" t="s">
-        <v>218</v>
+        <v>256</v>
       </c>
     </row>
     <row r="88" spans="1:3">
       <c r="A88" t="s">
-        <v>214</v>
+        <v>252</v>
       </c>
       <c r="B88" t="s">
-        <v>219</v>
+        <v>257</v>
       </c>
       <c r="C88" t="s">
-        <v>219</v>
+        <v>257</v>
       </c>
     </row>
     <row r="89" spans="1:3">
       <c r="A89" t="s">
-        <v>214</v>
+        <v>252</v>
       </c>
       <c r="B89" t="s">
-        <v>220</v>
+        <v>258</v>
       </c>
       <c r="C89" t="s">
-        <v>220</v>
+        <v>258</v>
       </c>
     </row>
     <row r="90" spans="1:3">
       <c r="A90" t="s">
-        <v>214</v>
+        <v>252</v>
       </c>
       <c r="B90" t="s">
-        <v>221</v>
+        <v>259</v>
       </c>
       <c r="C90" t="s">
-        <v>221</v>
+        <v>259</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3">
+      <c r="A92" t="s">
+        <v>260</v>
+      </c>
+      <c r="B92" t="s">
+        <v>172</v>
+      </c>
+      <c r="C92" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3">
+      <c r="A93" t="s">
+        <v>260</v>
+      </c>
+      <c r="B93" t="s">
+        <v>173</v>
+      </c>
+      <c r="C93" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3">
+      <c r="A94" t="s">
+        <v>260</v>
+      </c>
+      <c r="B94" t="s">
+        <v>261</v>
+      </c>
+      <c r="C94" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3">
+      <c r="A96" t="s">
+        <v>262</v>
+      </c>
+      <c r="B96" t="s">
+        <v>263</v>
+      </c>
+      <c r="C96" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3">
+      <c r="A97" t="s">
+        <v>262</v>
+      </c>
+      <c r="B97" t="s">
+        <v>264</v>
+      </c>
+      <c r="C97" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3">
+      <c r="A98" t="s">
+        <v>262</v>
+      </c>
+      <c r="B98" t="s">
+        <v>265</v>
+      </c>
+      <c r="C98" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3">
+      <c r="A99" t="s">
+        <v>262</v>
+      </c>
+      <c r="B99" t="s">
+        <v>266</v>
+      </c>
+      <c r="C99" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3">
+      <c r="A100" t="s">
+        <v>262</v>
+      </c>
+      <c r="B100" t="s">
+        <v>267</v>
+      </c>
+      <c r="C100" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3">
+      <c r="A101" t="s">
+        <v>262</v>
+      </c>
+      <c r="B101" t="s">
+        <v>268</v>
+      </c>
+      <c r="C101" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3">
+      <c r="A102" t="s">
+        <v>262</v>
+      </c>
+      <c r="B102" t="s">
+        <v>269</v>
+      </c>
+      <c r="C102" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3">
+      <c r="A103" t="s">
+        <v>262</v>
+      </c>
+      <c r="B103" t="s">
+        <v>270</v>
+      </c>
+      <c r="C103" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3">
+      <c r="A104" t="s">
+        <v>262</v>
+      </c>
+      <c r="B104" t="s">
+        <v>179</v>
+      </c>
+      <c r="C104" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3">
+      <c r="A105" t="s">
+        <v>262</v>
+      </c>
+      <c r="B105" t="s">
+        <v>272</v>
+      </c>
+      <c r="C105" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3">
+      <c r="A107" t="s">
+        <v>273</v>
+      </c>
+      <c r="B107" t="s">
+        <v>274</v>
+      </c>
+      <c r="C107" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3">
+      <c r="A108" t="s">
+        <v>273</v>
+      </c>
+      <c r="B108" t="s">
+        <v>275</v>
+      </c>
+      <c r="C108" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3">
+      <c r="A109" t="s">
+        <v>273</v>
+      </c>
+      <c r="B109" t="s">
+        <v>276</v>
+      </c>
+      <c r="C109" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3">
+      <c r="A110" t="s">
+        <v>273</v>
+      </c>
+      <c r="B110" t="s">
+        <v>277</v>
+      </c>
+      <c r="C110" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3">
+      <c r="A112" t="s">
+        <v>278</v>
+      </c>
+      <c r="B112" t="s">
+        <v>279</v>
+      </c>
+      <c r="C112" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3">
+      <c r="A113" t="s">
+        <v>278</v>
+      </c>
+      <c r="B113" t="s">
+        <v>280</v>
+      </c>
+      <c r="C113" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3">
+      <c r="A114" t="s">
+        <v>278</v>
+      </c>
+      <c r="B114" t="s">
+        <v>281</v>
+      </c>
+      <c r="C114" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3">
+      <c r="A115" t="s">
+        <v>278</v>
+      </c>
+      <c r="B115" t="s">
+        <v>282</v>
+      </c>
+      <c r="C115" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3">
+      <c r="A116" t="s">
+        <v>278</v>
+      </c>
+      <c r="B116" t="s">
+        <v>283</v>
+      </c>
+      <c r="C116" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3">
+      <c r="A117" t="s">
+        <v>278</v>
+      </c>
+      <c r="B117" t="s">
+        <v>284</v>
+      </c>
+      <c r="C117" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3">
+      <c r="A119" t="s">
+        <v>285</v>
+      </c>
+      <c r="B119" t="s">
+        <v>286</v>
+      </c>
+      <c r="C119" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3">
+      <c r="A120" t="s">
+        <v>285</v>
+      </c>
+      <c r="B120" t="s">
+        <v>287</v>
+      </c>
+      <c r="C120" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3">
+      <c r="A121" t="s">
+        <v>285</v>
+      </c>
+      <c r="B121" t="s">
+        <v>288</v>
+      </c>
+      <c r="C121" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3">
+      <c r="A122" t="s">
+        <v>285</v>
+      </c>
+      <c r="B122" t="s">
+        <v>289</v>
+      </c>
+      <c r="C122" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3">
+      <c r="A123" t="s">
+        <v>285</v>
+      </c>
+      <c r="B123" t="s">
+        <v>290</v>
+      </c>
+      <c r="C123" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3">
+      <c r="A124" t="s">
+        <v>285</v>
+      </c>
+      <c r="B124" t="s">
+        <v>291</v>
+      </c>
+      <c r="C124" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3">
+      <c r="A125" t="s">
+        <v>285</v>
+      </c>
+      <c r="B125" t="s">
+        <v>292</v>
+      </c>
+      <c r="C125" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3">
+      <c r="A126" t="s">
+        <v>285</v>
+      </c>
+      <c r="B126" t="s">
+        <v>293</v>
+      </c>
+      <c r="C126" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3">
+      <c r="A127" t="s">
+        <v>285</v>
+      </c>
+      <c r="B127" t="s">
+        <v>179</v>
+      </c>
+      <c r="C127" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3">
+      <c r="A129" t="s">
+        <v>295</v>
+      </c>
+      <c r="B129" t="s">
+        <v>296</v>
+      </c>
+      <c r="C129" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3">
+      <c r="A130" t="s">
+        <v>295</v>
+      </c>
+      <c r="B130" t="s">
+        <v>297</v>
+      </c>
+      <c r="C130" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3">
+      <c r="A131" t="s">
+        <v>295</v>
+      </c>
+      <c r="B131" t="s">
+        <v>298</v>
+      </c>
+      <c r="C131" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3">
+      <c r="A132" t="s">
+        <v>295</v>
+      </c>
+      <c r="B132" t="s">
+        <v>299</v>
+      </c>
+      <c r="C132" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3">
+      <c r="A133" t="s">
+        <v>295</v>
+      </c>
+      <c r="B133" t="s">
+        <v>179</v>
+      </c>
+      <c r="C133" t="s">
+        <v>300</v>
       </c>
     </row>
   </sheetData>
@@ -3287,24 +4192,24 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
-        <v>222</v>
+        <v>301</v>
       </c>
       <c r="B1" t="s">
-        <v>223</v>
+        <v>302</v>
       </c>
       <c r="C1" t="s">
-        <v>224</v>
+        <v>303</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>225</v>
+        <v>304</v>
       </c>
       <c r="B2" t="s">
-        <v>226</v>
+        <v>305</v>
       </c>
       <c r="C2" t="s">
-        <v>227</v>
+        <v>306</v>
       </c>
       <c r="D2" s="2"/>
     </row>

--- a/Coverage Survey/Ethiopia/et_ces_sch_sth_4_individual_202111.xlsx
+++ b/Coverage Survey/Ethiopia/et_ces_sch_sth_4_individual_202111.xlsx
@@ -1,22 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24527"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Repositories\WHO\dsa-forms\Coverage Survey\Ethiopia\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D07D9EB-9F1C-48F6-A25A-CC1168662C94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12345"/>
+    <workbookView xWindow="-93" yWindow="-93" windowWidth="25786" windowHeight="13986" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
     <sheet name="choices" sheetId="2" r:id="rId2"/>
     <sheet name="settings" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525" calcCompleted="0" calcOnSave="0"/>
+  <calcPr calcId="144525" calcOnSave="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="611" uniqueCount="307">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="611" uniqueCount="308">
   <si>
     <t>type</t>
   </si>
@@ -75,9 +81,6 @@
     <t>20. Participant age?</t>
   </si>
   <si>
-    <t>.&gt;=0 and .&lt;= 120</t>
-  </si>
-  <si>
     <t>Please enter a valid age</t>
   </si>
   <si>
@@ -937,19 +940,19 @@
   </si>
   <si>
     <t>English</t>
+  </si>
+  <si>
+    <t>. &gt;= 0 and . &lt;= 120</t>
+  </si>
+  <si>
+    <t>6.Didn.t know</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
-  </numFmts>
-  <fonts count="24">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -972,159 +975,8 @@
       <name val="Arial"/>
       <charset val="1"/>
     </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="34">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1137,194 +989,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -1332,251 +998,9 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
   <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -1602,61 +1026,17 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="60% - Accent6" xfId="1" builtinId="52"/>
-    <cellStyle name="40% - Accent6" xfId="2" builtinId="51"/>
-    <cellStyle name="60% - Accent5" xfId="3" builtinId="48"/>
-    <cellStyle name="Accent6" xfId="4" builtinId="49"/>
-    <cellStyle name="40% - Accent5" xfId="5" builtinId="47"/>
-    <cellStyle name="20% - Accent5" xfId="6" builtinId="46"/>
-    <cellStyle name="60% - Accent4" xfId="7" builtinId="44"/>
-    <cellStyle name="Accent5" xfId="8" builtinId="45"/>
-    <cellStyle name="40% - Accent4" xfId="9" builtinId="43"/>
-    <cellStyle name="Accent4" xfId="10" builtinId="41"/>
-    <cellStyle name="Linked Cell" xfId="11" builtinId="24"/>
-    <cellStyle name="40% - Accent3" xfId="12" builtinId="39"/>
-    <cellStyle name="60% - Accent2" xfId="13" builtinId="36"/>
-    <cellStyle name="Accent3" xfId="14" builtinId="37"/>
-    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
-    <cellStyle name="20% - Accent2" xfId="16" builtinId="34"/>
-    <cellStyle name="Accent2" xfId="17" builtinId="33"/>
-    <cellStyle name="40% - Accent1" xfId="18" builtinId="31"/>
-    <cellStyle name="20% - Accent1" xfId="19" builtinId="30"/>
-    <cellStyle name="Accent1" xfId="20" builtinId="29"/>
-    <cellStyle name="Neutral" xfId="21" builtinId="28"/>
-    <cellStyle name="60% - Accent1" xfId="22" builtinId="32"/>
-    <cellStyle name="Bad" xfId="23" builtinId="27"/>
-    <cellStyle name="20% - Accent4" xfId="24" builtinId="42"/>
-    <cellStyle name="Total" xfId="25" builtinId="25"/>
-    <cellStyle name="Output" xfId="26" builtinId="21"/>
-    <cellStyle name="Currency" xfId="27" builtinId="4"/>
-    <cellStyle name="20% - Accent3" xfId="28" builtinId="38"/>
-    <cellStyle name="Note" xfId="29" builtinId="10"/>
-    <cellStyle name="Input" xfId="30" builtinId="20"/>
-    <cellStyle name="Heading 4" xfId="31" builtinId="19"/>
-    <cellStyle name="Calculation" xfId="32" builtinId="22"/>
-    <cellStyle name="Good" xfId="33" builtinId="26"/>
-    <cellStyle name="Heading 3" xfId="34" builtinId="18"/>
-    <cellStyle name="CExplanatory Text" xfId="35" builtinId="53"/>
-    <cellStyle name="Heading 1" xfId="36" builtinId="16"/>
-    <cellStyle name="Comma [0]" xfId="37" builtinId="6"/>
-    <cellStyle name="20% - Accent6" xfId="38" builtinId="50"/>
-    <cellStyle name="Title" xfId="39" builtinId="15"/>
-    <cellStyle name="Currency [0]" xfId="40" builtinId="7"/>
-    <cellStyle name="Warning Text" xfId="41" builtinId="11"/>
-    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9"/>
-    <cellStyle name="Heading 2" xfId="43" builtinId="17"/>
-    <cellStyle name="Comma" xfId="44" builtinId="3"/>
-    <cellStyle name="Check Cell" xfId="45" builtinId="23"/>
-    <cellStyle name="60% - Accent3" xfId="46" builtinId="40"/>
-    <cellStyle name="Percent" xfId="47" builtinId="5"/>
-    <cellStyle name="Hyperlink" xfId="48" builtinId="8"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1914,36 +1294,37 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="A1:M52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.425" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="11.41015625" defaultRowHeight="12.7"/>
   <cols>
-    <col min="1" max="1" width="19.7083333333333" customWidth="1"/>
+    <col min="1" max="1" width="19.703125" customWidth="1"/>
     <col min="2" max="2" width="27" customWidth="1"/>
-    <col min="3" max="4" width="45.875" customWidth="1"/>
-    <col min="5" max="5" width="25.2833333333333" customWidth="1"/>
+    <col min="3" max="4" width="45.87890625" customWidth="1"/>
+    <col min="5" max="5" width="25.29296875" customWidth="1"/>
     <col min="6" max="6" width="9" customWidth="1"/>
-    <col min="7" max="7" width="16.2833333333333" customWidth="1"/>
-    <col min="8" max="8" width="28.5666666666667" customWidth="1"/>
-    <col min="9" max="9" width="12.375" customWidth="1"/>
-    <col min="10" max="10" width="22.25" customWidth="1"/>
-    <col min="11" max="11" width="11.375" customWidth="1"/>
-    <col min="12" max="12" width="16.7083333333333" customWidth="1"/>
+    <col min="7" max="7" width="16.29296875" customWidth="1"/>
+    <col min="8" max="8" width="28.5859375" customWidth="1"/>
+    <col min="9" max="9" width="12.3515625" customWidth="1"/>
+    <col min="10" max="10" width="22.234375" customWidth="1"/>
+    <col min="11" max="11" width="11.3515625" customWidth="1"/>
+    <col min="12" max="12" width="16.703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="5" customFormat="1" spans="1:13">
+    <row r="1" spans="1:13" s="5" customFormat="1">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -1982,7 +1363,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:13">
       <c r="A2" s="7" t="s">
         <v>12</v>
       </c>
@@ -1998,7 +1379,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:12">
+    <row r="3" spans="1:13">
       <c r="A3" s="7" t="s">
         <v>16</v>
       </c>
@@ -2013,22 +1394,22 @@
         <v>15</v>
       </c>
       <c r="G3" t="s">
+        <v>306</v>
+      </c>
+      <c r="H3" t="s">
         <v>19</v>
       </c>
-      <c r="H3" t="s">
-        <v>20</v>
-      </c>
       <c r="L3" s="13"/>
     </row>
-    <row r="4" ht="38.25" spans="1:10">
+    <row r="4" spans="1:13" ht="38">
       <c r="A4" s="7" t="s">
         <v>12</v>
       </c>
       <c r="B4" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" s="8" t="s">
         <v>21</v>
-      </c>
-      <c r="C4" s="8" t="s">
-        <v>22</v>
       </c>
       <c r="D4" s="8"/>
       <c r="E4" s="7"/>
@@ -2036,18 +1417,18 @@
         <v>15</v>
       </c>
       <c r="J4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" s="6" customFormat="1">
+      <c r="A5" s="7" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="5" s="6" customFormat="1" spans="1:12">
-      <c r="A5" s="7" t="s">
+      <c r="B5" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="C5" s="8" t="s">
         <v>25</v>
-      </c>
-      <c r="C5" s="8" t="s">
-        <v>26</v>
       </c>
       <c r="D5" s="9"/>
       <c r="F5" s="7" t="s">
@@ -2060,15 +1441,15 @@
       <c r="K5" s="11"/>
       <c r="L5" s="13"/>
     </row>
-    <row r="6" s="6" customFormat="1" spans="1:11">
+    <row r="6" spans="1:13" s="6" customFormat="1">
       <c r="A6" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="B6" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="C6" s="8" t="s">
         <v>28</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>29</v>
       </c>
       <c r="D6" s="9"/>
       <c r="F6" s="7" t="s">
@@ -2080,18 +1461,18 @@
       <c r="J6" s="11"/>
       <c r="K6" s="11"/>
     </row>
-    <row r="7" s="6" customFormat="1" spans="1:12">
+    <row r="7" spans="1:13" s="6" customFormat="1">
       <c r="A7" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="B7" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="C7" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="C7" s="8" t="s">
+      <c r="D7" s="9" t="s">
         <v>32</v>
-      </c>
-      <c r="D7" s="9" t="s">
-        <v>33</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>15</v>
@@ -2100,152 +1481,152 @@
       <c r="H7" s="11"/>
       <c r="I7" s="11"/>
       <c r="J7" s="11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K7" s="11"/>
       <c r="L7" s="13"/>
     </row>
-    <row r="8" ht="25.5" spans="1:10">
+    <row r="8" spans="1:13" ht="25.35">
       <c r="A8" s="7" t="s">
         <v>12</v>
       </c>
       <c r="B8" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="C8" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="C8" s="8" t="s">
+      <c r="D8" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="D8" s="9" t="s">
+      <c r="F8" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="J8" t="s">
         <v>37</v>
       </c>
-      <c r="F8" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="J8" t="s">
+    </row>
+    <row r="9" spans="1:13">
+      <c r="A9" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="B9" s="7" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="B9" s="7" t="s">
+      <c r="C9" s="8" t="s">
         <v>39</v>
-      </c>
-      <c r="C9" s="8" t="s">
-        <v>40</v>
       </c>
       <c r="D9" s="9"/>
       <c r="F9" s="7" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:13">
       <c r="A10" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B10" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="C10" s="10" t="s">
         <v>41</v>
-      </c>
-      <c r="C10" s="10" t="s">
-        <v>42</v>
       </c>
       <c r="D10" s="10"/>
       <c r="F10" s="7" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:10">
+    <row r="11" spans="1:13">
       <c r="A11" t="s">
+        <v>42</v>
+      </c>
+      <c r="B11" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="B11" s="7" t="s">
+      <c r="C11" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="C11" s="10" t="s">
+      <c r="D11" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="D11" s="10" t="s">
+      <c r="F11" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="J11" t="s">
         <v>46</v>
       </c>
-      <c r="F11" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="J11" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="12" ht="25.5" spans="1:11">
+    </row>
+    <row r="12" spans="1:13" ht="25.35">
       <c r="A12" t="s">
         <v>12</v>
       </c>
       <c r="B12" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="C12" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="C12" s="10" t="s">
+      <c r="D12" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="J12" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="D12" s="10" t="s">
+      <c r="K12" s="11"/>
+    </row>
+    <row r="13" spans="1:13" ht="25.35">
+      <c r="A13" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="J13" t="s">
         <v>46</v>
       </c>
-      <c r="F12" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="J12" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="K12" s="11"/>
-    </row>
-    <row r="13" ht="25.5" spans="1:10">
-      <c r="A13" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="B13" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="C13" s="10" t="s">
+    </row>
+    <row r="14" spans="1:13">
+      <c r="A14" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="B14" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="D13" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="J13" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10">
-      <c r="A14" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="B14" s="7" t="s">
+      <c r="C14" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="C14" s="10" t="s">
+      <c r="D14" s="10" t="s">
         <v>54</v>
-      </c>
-      <c r="D14" s="10" t="s">
-        <v>55</v>
       </c>
       <c r="F14" s="7" t="s">
         <v>15</v>
       </c>
       <c r="G14" s="7"/>
       <c r="J14" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" ht="25.35">
+      <c r="A15" s="11" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="15" ht="25.5" spans="1:10">
-      <c r="A15" s="11" t="s">
+      <c r="B15" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="B15" s="11" t="s">
+      <c r="C15" s="10" t="s">
         <v>58</v>
-      </c>
-      <c r="C15" s="10" t="s">
-        <v>59</v>
       </c>
       <c r="D15" s="10"/>
       <c r="F15" s="7" t="s">
@@ -2253,36 +1634,36 @@
       </c>
       <c r="G15" s="11"/>
       <c r="J15" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" ht="25.35">
+      <c r="A16" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="16" ht="25.5" spans="1:10">
-      <c r="A16" t="s">
+      <c r="B16" t="s">
         <v>61</v>
       </c>
-      <c r="B16" t="s">
+      <c r="C16" s="10" t="s">
         <v>62</v>
-      </c>
-      <c r="C16" s="10" t="s">
-        <v>63</v>
       </c>
       <c r="D16" s="10"/>
       <c r="F16" s="7" t="s">
         <v>15</v>
       </c>
       <c r="J16" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
       <c r="A17" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B17" t="s">
+        <v>63</v>
+      </c>
+      <c r="C17" t="s">
         <v>64</v>
-      </c>
-      <c r="C17" t="s">
-        <v>65</v>
       </c>
       <c r="F17" s="7" t="s">
         <v>15</v>
@@ -2290,19 +1671,19 @@
     </row>
     <row r="18" spans="1:10">
       <c r="A18" t="s">
+        <v>65</v>
+      </c>
+      <c r="B18" t="s">
         <v>66</v>
       </c>
-      <c r="B18" t="s">
+      <c r="C18" t="s">
         <v>67</v>
       </c>
-      <c r="C18" t="s">
+      <c r="F18" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="J18" t="s">
         <v>68</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="J18" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -2310,41 +1691,41 @@
         <v>12</v>
       </c>
       <c r="B19" t="s">
+        <v>69</v>
+      </c>
+      <c r="C19" t="s">
         <v>70</v>
       </c>
-      <c r="C19" t="s">
+      <c r="F19" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="J19" t="s">
         <v>71</v>
       </c>
-      <c r="F19" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="J19" t="s">
+    </row>
+    <row r="20" spans="1:10">
+      <c r="A20" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="20" spans="1:6">
-      <c r="A20" t="s">
+      <c r="B20" t="s">
         <v>73</v>
       </c>
-      <c r="B20" t="s">
+      <c r="C20" t="s">
         <v>74</v>
       </c>
-      <c r="C20" t="s">
+      <c r="F20" s="7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
+      <c r="A21" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="B21" t="s">
         <v>75</v>
       </c>
-      <c r="F20" s="7" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
-      <c r="A21" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="B21" t="s">
+      <c r="C21" t="s">
         <v>76</v>
-      </c>
-      <c r="C21" t="s">
-        <v>77</v>
       </c>
       <c r="F21" s="7" t="s">
         <v>15</v>
@@ -2352,19 +1733,19 @@
     </row>
     <row r="22" spans="1:10">
       <c r="A22" t="s">
+        <v>77</v>
+      </c>
+      <c r="B22" t="s">
         <v>78</v>
       </c>
-      <c r="B22" t="s">
+      <c r="C22" t="s">
         <v>79</v>
       </c>
-      <c r="C22" t="s">
+      <c r="F22" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="J22" t="s">
         <v>80</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="J22" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="23" spans="1:10">
@@ -2372,44 +1753,44 @@
         <v>12</v>
       </c>
       <c r="B23" t="s">
+        <v>81</v>
+      </c>
+      <c r="C23" t="s">
         <v>82</v>
       </c>
-      <c r="C23" t="s">
+      <c r="F23" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="J23" t="s">
         <v>83</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="J23" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="24" spans="1:10">
       <c r="A24" t="s">
+        <v>84</v>
+      </c>
+      <c r="B24" t="s">
         <v>85</v>
       </c>
-      <c r="B24" t="s">
+      <c r="C24" t="s">
         <v>86</v>
       </c>
-      <c r="C24" t="s">
+      <c r="F24" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="J24" t="s">
         <v>87</v>
       </c>
-      <c r="F24" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="J24" t="s">
+    </row>
+    <row r="25" spans="1:10">
+      <c r="A25" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="B25" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="25" spans="1:6">
-      <c r="A25" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="B25" t="s">
+      <c r="C25" t="s">
         <v>89</v>
-      </c>
-      <c r="C25" t="s">
-        <v>90</v>
       </c>
       <c r="F25" s="7" t="s">
         <v>15</v>
@@ -2417,19 +1798,19 @@
     </row>
     <row r="26" spans="1:10">
       <c r="A26" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B26" t="s">
+        <v>90</v>
+      </c>
+      <c r="C26" t="s">
         <v>91</v>
       </c>
-      <c r="C26" t="s">
+      <c r="F26" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="J26" t="s">
         <v>92</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="J26" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="27" spans="1:10">
@@ -2437,129 +1818,129 @@
         <v>12</v>
       </c>
       <c r="B27" t="s">
+        <v>93</v>
+      </c>
+      <c r="C27" t="s">
         <v>94</v>
       </c>
-      <c r="C27" t="s">
+      <c r="F27" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="J27" t="s">
         <v>95</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="J27" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="28" spans="1:10">
       <c r="A28" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B28" t="s">
+        <v>96</v>
+      </c>
+      <c r="C28" t="s">
         <v>97</v>
       </c>
-      <c r="C28" t="s">
+      <c r="F28" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="J28" t="s">
         <v>98</v>
-      </c>
-      <c r="F28" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="J28" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="29" spans="1:10">
       <c r="A29" t="s">
+        <v>99</v>
+      </c>
+      <c r="B29" t="s">
         <v>100</v>
       </c>
-      <c r="B29" t="s">
+      <c r="C29" t="s">
         <v>101</v>
       </c>
-      <c r="C29" t="s">
+      <c r="F29" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="J29" t="s">
         <v>102</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="J29" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="30" spans="1:10">
       <c r="A30" t="s">
+        <v>103</v>
+      </c>
+      <c r="B30" t="s">
         <v>104</v>
       </c>
-      <c r="B30" t="s">
+      <c r="C30" t="s">
         <v>105</v>
       </c>
-      <c r="C30" t="s">
-        <v>106</v>
-      </c>
       <c r="F30" s="7" t="s">
         <v>15</v>
       </c>
       <c r="J30" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="31" spans="1:10">
       <c r="A31" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B31" t="s">
+        <v>106</v>
+      </c>
+      <c r="C31" t="s">
         <v>107</v>
       </c>
-      <c r="C31" t="s">
-        <v>108</v>
-      </c>
       <c r="F31" s="7" t="s">
         <v>15</v>
       </c>
       <c r="J31" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="32" spans="1:10">
       <c r="A32" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B32" t="s">
+        <v>108</v>
+      </c>
+      <c r="C32" t="s">
         <v>109</v>
       </c>
-      <c r="C32" t="s">
-        <v>110</v>
-      </c>
       <c r="F32" s="7" t="s">
         <v>15</v>
       </c>
       <c r="J32" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="33" spans="1:10">
       <c r="A33" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B33" t="s">
+        <v>110</v>
+      </c>
+      <c r="C33" t="s">
         <v>111</v>
       </c>
-      <c r="C33" t="s">
+      <c r="F33" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="J33" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10">
+      <c r="A34" t="s">
         <v>112</v>
       </c>
-      <c r="F33" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="J33" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6">
-      <c r="A34" t="s">
+      <c r="B34" t="s">
         <v>113</v>
       </c>
-      <c r="B34" t="s">
+      <c r="C34" t="s">
         <v>114</v>
-      </c>
-      <c r="C34" t="s">
-        <v>115</v>
       </c>
       <c r="F34" s="7" t="s">
         <v>15</v>
@@ -2570,55 +1951,55 @@
         <v>12</v>
       </c>
       <c r="B35" t="s">
+        <v>115</v>
+      </c>
+      <c r="C35" t="s">
         <v>116</v>
       </c>
-      <c r="C35" t="s">
+      <c r="F35" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="J35" t="s">
         <v>117</v>
       </c>
-      <c r="F35" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="J35" t="s">
+    </row>
+    <row r="36" spans="1:10">
+      <c r="A36" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="36" spans="1:6">
-      <c r="A36" t="s">
+      <c r="B36" t="s">
         <v>119</v>
       </c>
-      <c r="B36" t="s">
+      <c r="C36" t="s">
         <v>120</v>
       </c>
-      <c r="C36" t="s">
+      <c r="F36" s="7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10">
+      <c r="A37" t="s">
         <v>121</v>
       </c>
-      <c r="F36" s="7" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6">
-      <c r="A37" t="s">
+      <c r="B37" t="s">
         <v>122</v>
       </c>
-      <c r="B37" t="s">
+      <c r="C37" t="s">
         <v>123</v>
       </c>
-      <c r="C37" t="s">
+      <c r="F37" s="7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10">
+      <c r="A38" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="B38" t="s">
         <v>124</v>
       </c>
-      <c r="F37" s="7" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6">
-      <c r="A38" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="B38" t="s">
+      <c r="C38" t="s">
         <v>125</v>
-      </c>
-      <c r="C38" t="s">
-        <v>126</v>
       </c>
       <c r="F38" s="7" t="s">
         <v>15</v>
@@ -2626,19 +2007,19 @@
     </row>
     <row r="39" spans="1:10">
       <c r="A39" t="s">
+        <v>126</v>
+      </c>
+      <c r="B39" t="s">
         <v>127</v>
       </c>
-      <c r="B39" t="s">
+      <c r="C39" t="s">
         <v>128</v>
       </c>
-      <c r="C39" t="s">
+      <c r="F39" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="J39" t="s">
         <v>129</v>
-      </c>
-      <c r="F39" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="J39" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="40" spans="1:10">
@@ -2646,50 +2027,50 @@
         <v>12</v>
       </c>
       <c r="B40" t="s">
+        <v>130</v>
+      </c>
+      <c r="C40" t="s">
         <v>131</v>
       </c>
-      <c r="C40" t="s">
+      <c r="F40" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="J40" t="s">
         <v>132</v>
-      </c>
-      <c r="F40" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="J40" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="41" spans="1:10">
       <c r="A41" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B41" t="s">
+        <v>133</v>
+      </c>
+      <c r="C41" t="s">
         <v>134</v>
       </c>
-      <c r="C41" t="s">
+      <c r="F41" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="J41" s="10" t="s">
         <v>135</v>
-      </c>
-      <c r="F41" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="J41" s="10" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="42" spans="1:10">
       <c r="A42" t="s">
+        <v>136</v>
+      </c>
+      <c r="B42" t="s">
         <v>137</v>
       </c>
-      <c r="B42" t="s">
+      <c r="C42" t="s">
         <v>138</v>
       </c>
-      <c r="C42" t="s">
+      <c r="F42" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="J42" t="s">
         <v>139</v>
-      </c>
-      <c r="F42" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="J42" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="43" spans="1:10">
@@ -2697,27 +2078,27 @@
         <v>12</v>
       </c>
       <c r="B43" t="s">
+        <v>140</v>
+      </c>
+      <c r="C43" t="s">
         <v>141</v>
       </c>
-      <c r="C43" t="s">
+      <c r="F43" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="J43" t="s">
         <v>142</v>
       </c>
-      <c r="F43" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="J43" t="s">
+    </row>
+    <row r="44" spans="1:10">
+      <c r="A44" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="B44" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="44" spans="1:6">
-      <c r="A44" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="B44" t="s">
+      <c r="C44" t="s">
         <v>144</v>
-      </c>
-      <c r="C44" t="s">
-        <v>145</v>
       </c>
       <c r="F44" s="7" t="s">
         <v>15</v>
@@ -2725,19 +2106,19 @@
     </row>
     <row r="45" spans="1:10">
       <c r="A45" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B45" t="s">
+        <v>145</v>
+      </c>
+      <c r="C45" t="s">
         <v>146</v>
       </c>
-      <c r="C45" t="s">
+      <c r="F45" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="J45" t="s">
         <v>147</v>
-      </c>
-      <c r="F45" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="J45" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="46" spans="1:10">
@@ -2745,50 +2126,50 @@
         <v>12</v>
       </c>
       <c r="B46" t="s">
+        <v>148</v>
+      </c>
+      <c r="C46" t="s">
         <v>149</v>
       </c>
-      <c r="C46" t="s">
+      <c r="F46" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="J46" t="s">
         <v>150</v>
       </c>
-      <c r="F46" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="J46" t="s">
+    </row>
+    <row r="47" spans="1:10" ht="25.35">
+      <c r="A47" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="B47" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="47" ht="25.5" spans="1:10">
-      <c r="A47" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="B47" t="s">
+      <c r="C47" t="s">
         <v>152</v>
       </c>
-      <c r="C47" t="s">
+      <c r="F47" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="J47" s="10" t="s">
         <v>153</v>
-      </c>
-      <c r="F47" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="J47" s="10" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="48" spans="1:10">
       <c r="A48" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B48" t="s">
+        <v>154</v>
+      </c>
+      <c r="C48" t="s">
         <v>155</v>
       </c>
-      <c r="C48" t="s">
+      <c r="F48" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="J48" t="s">
         <v>156</v>
-      </c>
-      <c r="F48" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="J48" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="49" spans="1:10">
@@ -2796,43 +2177,43 @@
         <v>12</v>
       </c>
       <c r="B49" t="s">
+        <v>157</v>
+      </c>
+      <c r="C49" t="s">
         <v>158</v>
       </c>
-      <c r="C49" t="s">
+      <c r="F49" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="J49" t="s">
         <v>159</v>
       </c>
-      <c r="F49" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="J49" t="s">
+    </row>
+    <row r="50" spans="1:10">
+      <c r="A50" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="50" spans="1:3">
-      <c r="A50" t="s">
+      <c r="B50" t="s">
         <v>161</v>
       </c>
-      <c r="B50" t="s">
+      <c r="C50" t="s">
         <v>162</v>
       </c>
-      <c r="C50" t="s">
+    </row>
+    <row r="51" spans="1:10">
+      <c r="A51" t="s">
         <v>163</v>
       </c>
-    </row>
-    <row r="51" spans="1:2">
-      <c r="A51" t="s">
+      <c r="B51" t="s">
         <v>164</v>
       </c>
-      <c r="B51" t="s">
+    </row>
+    <row r="52" spans="1:10">
+      <c r="A52" t="s">
         <v>165</v>
       </c>
-    </row>
-    <row r="52" spans="1:2">
-      <c r="A52" t="s">
+      <c r="B52" t="s">
         <v>166</v>
-      </c>
-      <c r="B52" t="s">
-        <v>167</v>
       </c>
     </row>
   </sheetData>
@@ -2847,29 +2228,28 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="A1:G133"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A104" activePane="bottomLeft" state="frozen"/>
-      <selection/>
-      <selection pane="bottomLeft" activeCell="A119" sqref="A119:A127"/>
+      <selection pane="bottomLeft" activeCell="B124" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.425" defaultRowHeight="12.75" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="11.41015625" defaultRowHeight="12.7"/>
   <cols>
-    <col min="1" max="1" width="23.75" customWidth="1"/>
-    <col min="2" max="4" width="19.8583333333333" customWidth="1"/>
-    <col min="5" max="5" width="13.2833333333333" customWidth="1"/>
+    <col min="1" max="1" width="23.76171875" customWidth="1"/>
+    <col min="2" max="4" width="19.87890625" customWidth="1"/>
+    <col min="5" max="5" width="13.29296875" customWidth="1"/>
     <col min="6" max="6" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="3" customFormat="1" spans="1:7">
+    <row r="1" spans="1:7" s="3" customFormat="1">
       <c r="A1" s="4" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>1</v>
@@ -2878,1288 +2258,1288 @@
         <v>2</v>
       </c>
       <c r="D1" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="E1" s="4" t="s">
         <v>169</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>170</v>
       </c>
       <c r="F1" s="4"/>
       <c r="G1" s="4"/>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
+        <v>170</v>
+      </c>
+      <c r="B2" t="s">
         <v>171</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" t="s">
+        <v>170</v>
+      </c>
+      <c r="B3" t="s">
         <v>172</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C3" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
-      <c r="A3" t="s">
-        <v>171</v>
-      </c>
-      <c r="B3" t="s">
+    <row r="5" spans="1:7">
+      <c r="A5" t="s">
         <v>173</v>
       </c>
-      <c r="C3" t="s">
+      <c r="B5" t="s">
+        <v>174</v>
+      </c>
+      <c r="C5" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" t="s">
         <v>173</v>
       </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" t="s">
-        <v>174</v>
-      </c>
-      <c r="B5" t="s">
+      <c r="B6" t="s">
         <v>175</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C6" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
-      <c r="A6" t="s">
-        <v>174</v>
-      </c>
-      <c r="B6" t="s">
+    <row r="8" spans="1:7">
+      <c r="A8" t="s">
+        <v>30</v>
+      </c>
+      <c r="B8" t="s">
         <v>176</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C8" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
-      <c r="A8" t="s">
-        <v>31</v>
-      </c>
-      <c r="B8" t="s">
+    <row r="9" spans="1:7">
+      <c r="A9" t="s">
+        <v>30</v>
+      </c>
+      <c r="B9" t="s">
         <v>177</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C9" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
-      <c r="A9" t="s">
-        <v>31</v>
-      </c>
-      <c r="B9" t="s">
+    <row r="10" spans="1:7">
+      <c r="A10" t="s">
+        <v>30</v>
+      </c>
+      <c r="B10" t="s">
         <v>178</v>
       </c>
-      <c r="C9" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" t="s">
-        <v>31</v>
-      </c>
-      <c r="B10" t="s">
+      <c r="C10" t="s">
         <v>179</v>
       </c>
-      <c r="C10" t="s">
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" t="s">
         <v>180</v>
       </c>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12" t="s">
+      <c r="B12" t="s">
         <v>181</v>
       </c>
-      <c r="B12" t="s">
+      <c r="C12" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" t="s">
+        <v>180</v>
+      </c>
+      <c r="B13" t="s">
         <v>182</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C13" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
-      <c r="A13" t="s">
-        <v>181</v>
-      </c>
-      <c r="B13" t="s">
+    <row r="14" spans="1:7">
+      <c r="A14" t="s">
+        <v>180</v>
+      </c>
+      <c r="B14" t="s">
         <v>183</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C14" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
-      <c r="A14" t="s">
-        <v>181</v>
-      </c>
-      <c r="B14" t="s">
+    <row r="15" spans="1:7">
+      <c r="A15" t="s">
+        <v>180</v>
+      </c>
+      <c r="B15" t="s">
         <v>184</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C15" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
-      <c r="A15" t="s">
-        <v>181</v>
-      </c>
-      <c r="B15" t="s">
+    <row r="16" spans="1:7">
+      <c r="A16" t="s">
+        <v>180</v>
+      </c>
+      <c r="B16" t="s">
         <v>185</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C16" t="s">
         <v>185</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
-      <c r="A16" t="s">
-        <v>181</v>
-      </c>
-      <c r="B16" t="s">
-        <v>186</v>
-      </c>
-      <c r="C16" t="s">
-        <v>186</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B17" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C17" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B18" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C18" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B19" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C19" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B20" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C20" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B21" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C21" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B22" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C22" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" t="s">
+        <v>192</v>
+      </c>
+      <c r="B24" t="s">
         <v>193</v>
       </c>
-      <c r="B24" t="s">
-        <v>194</v>
-      </c>
       <c r="C24" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B25" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C25" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" t="s">
+        <v>195</v>
+      </c>
+      <c r="B27" t="s">
         <v>196</v>
       </c>
-      <c r="B27" t="s">
-        <v>197</v>
-      </c>
       <c r="C27" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B28" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C28" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B29" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C29" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" t="s">
+        <v>199</v>
+      </c>
+      <c r="B31" t="s">
         <v>200</v>
       </c>
-      <c r="B31" t="s">
-        <v>201</v>
-      </c>
       <c r="C31" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B32" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C32" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B33" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C33" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B34" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C34" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B35" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C35" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B36" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C36" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B37" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C37" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B38" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C38" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B39" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C39" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B40" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C40" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B41" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C41" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43" t="s">
+        <v>210</v>
+      </c>
+      <c r="B43" t="s">
         <v>211</v>
       </c>
-      <c r="B43" t="s">
-        <v>212</v>
-      </c>
       <c r="C43" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="44" spans="1:3">
       <c r="A44" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B44" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C44" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="45" spans="1:3">
       <c r="A45" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B45" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C45" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="46" spans="1:3">
       <c r="A46" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B46" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C46" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="47" spans="1:3">
       <c r="A47" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B47" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C47" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="49" spans="1:3">
       <c r="A49" t="s">
+        <v>216</v>
+      </c>
+      <c r="B49" t="s">
         <v>217</v>
       </c>
-      <c r="B49" t="s">
-        <v>218</v>
-      </c>
       <c r="C49" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="50" spans="1:3">
       <c r="A50" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B50" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C50" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="51" spans="1:3">
       <c r="A51" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B51" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C51" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="52" spans="1:3">
       <c r="A52" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B52" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C52" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="53" spans="1:3">
       <c r="A53" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B53" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C53" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="54" spans="1:3">
       <c r="A54" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B54" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C54" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="55" spans="1:3">
       <c r="A55" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B55" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C55" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="56" spans="1:3">
       <c r="A56" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B56" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C56" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="57" spans="1:3">
       <c r="A57" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B57" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C57" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="58" spans="1:3">
       <c r="A58" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B58" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C58" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="59" spans="1:3">
       <c r="A59" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B59" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C59" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="60" spans="1:3">
       <c r="A60" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B60" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C60" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="61" spans="1:3">
       <c r="A61" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B61" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C61" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="62" spans="1:3">
       <c r="A62" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B62" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C62" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="63" spans="1:3">
       <c r="A63" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B63" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C63" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="64" spans="1:3">
       <c r="A64" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B64" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C64" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="65" spans="1:3">
       <c r="A65" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B65" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C65" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="66" spans="1:3">
       <c r="A66" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B66" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C66" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="67" spans="1:3">
       <c r="A67" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B67" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C67" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="68" spans="1:3">
       <c r="A68" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B68" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C68" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="69" spans="1:3">
       <c r="A69" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B69" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C69" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="70" spans="1:3">
       <c r="A70" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B70" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C70" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="71" spans="1:3">
       <c r="A71" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B71" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C71" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="72" spans="1:3">
       <c r="A72" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B72" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C72" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="73" spans="1:3">
       <c r="A73" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B73" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C73" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="75" spans="1:3">
       <c r="A75" t="s">
+        <v>242</v>
+      </c>
+      <c r="B75" t="s">
         <v>243</v>
       </c>
-      <c r="B75" t="s">
-        <v>244</v>
-      </c>
       <c r="C75" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="76" spans="1:3">
       <c r="A76" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B76" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C76" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="77" spans="1:3">
       <c r="A77" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B77" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C77" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="78" spans="1:3">
       <c r="A78" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B78" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C78" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="79" spans="1:3">
       <c r="A79" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B79" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C79" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="80" spans="1:3">
       <c r="A80" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B80" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C80" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="81" spans="1:3">
       <c r="A81" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B81" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C81" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="82" spans="1:3">
       <c r="A82" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B82" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C82" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="84" spans="1:3">
       <c r="A84" t="s">
+        <v>251</v>
+      </c>
+      <c r="B84" t="s">
         <v>252</v>
       </c>
-      <c r="B84" t="s">
-        <v>253</v>
-      </c>
       <c r="C84" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="85" spans="1:3">
       <c r="A85" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B85" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C85" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="86" spans="1:3">
       <c r="A86" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B86" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C86" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="87" spans="1:3">
       <c r="A87" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B87" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C87" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="88" spans="1:3">
       <c r="A88" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B88" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C88" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="89" spans="1:3">
       <c r="A89" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B89" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C89" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="90" spans="1:3">
       <c r="A90" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B90" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C90" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="92" spans="1:3">
       <c r="A92" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B92" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C92" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="93" spans="1:3">
       <c r="A93" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B93" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C93" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="94" spans="1:3">
       <c r="A94" t="s">
+        <v>259</v>
+      </c>
+      <c r="B94" t="s">
         <v>260</v>
       </c>
-      <c r="B94" t="s">
-        <v>261</v>
-      </c>
       <c r="C94" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="96" spans="1:3">
       <c r="A96" t="s">
+        <v>261</v>
+      </c>
+      <c r="B96" t="s">
         <v>262</v>
       </c>
-      <c r="B96" t="s">
-        <v>263</v>
-      </c>
       <c r="C96" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="97" spans="1:3">
       <c r="A97" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B97" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C97" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="98" spans="1:3">
       <c r="A98" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B98" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C98" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="99" spans="1:3">
       <c r="A99" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B99" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C99" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="100" spans="1:3">
       <c r="A100" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B100" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C100" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="101" spans="1:3">
       <c r="A101" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B101" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C101" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="102" spans="1:3">
       <c r="A102" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B102" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C102" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="103" spans="1:3">
       <c r="A103" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B103" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C103" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="104" spans="1:3">
       <c r="A104" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B104" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C104" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="105" spans="1:3">
       <c r="A105" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B105" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C105" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="107" spans="1:3">
       <c r="A107" t="s">
+        <v>272</v>
+      </c>
+      <c r="B107" t="s">
         <v>273</v>
       </c>
-      <c r="B107" t="s">
-        <v>274</v>
-      </c>
       <c r="C107" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="108" spans="1:3">
       <c r="A108" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B108" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C108" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="109" spans="1:3">
       <c r="A109" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B109" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C109" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="110" spans="1:3">
       <c r="A110" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B110" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C110" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="112" spans="1:3">
       <c r="A112" t="s">
+        <v>277</v>
+      </c>
+      <c r="B112" t="s">
         <v>278</v>
       </c>
-      <c r="B112" t="s">
-        <v>279</v>
-      </c>
       <c r="C112" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="113" spans="1:3">
       <c r="A113" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B113" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C113" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="114" spans="1:3">
       <c r="A114" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B114" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C114" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="115" spans="1:3">
       <c r="A115" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B115" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C115" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="116" spans="1:3">
       <c r="A116" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B116" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C116" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="117" spans="1:3">
       <c r="A117" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B117" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C117" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="119" spans="1:3">
       <c r="A119" t="s">
+        <v>284</v>
+      </c>
+      <c r="B119" t="s">
         <v>285</v>
       </c>
-      <c r="B119" t="s">
-        <v>286</v>
-      </c>
       <c r="C119" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="120" spans="1:3">
       <c r="A120" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B120" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C120" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="121" spans="1:3">
       <c r="A121" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B121" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C121" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="122" spans="1:3">
       <c r="A122" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B122" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C122" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="123" spans="1:3">
       <c r="A123" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B123" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C123" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="124" spans="1:3">
       <c r="A124" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B124" t="s">
-        <v>291</v>
+        <v>307</v>
       </c>
       <c r="C124" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="125" spans="1:3">
       <c r="A125" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B125" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C125" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="126" spans="1:3">
       <c r="A126" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B126" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C126" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="127" spans="1:3">
       <c r="A127" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B127" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C127" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="129" spans="1:3">
       <c r="A129" t="s">
+        <v>294</v>
+      </c>
+      <c r="B129" t="s">
         <v>295</v>
       </c>
-      <c r="B129" t="s">
-        <v>296</v>
-      </c>
       <c r="C129" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="130" spans="1:3">
       <c r="A130" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B130" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C130" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="131" spans="1:3">
       <c r="A131" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B131" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C131" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="132" spans="1:3">
       <c r="A132" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B132" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C132" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="133" spans="1:3">
       <c r="A133" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B133" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C133" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
   </sheetData>
@@ -4174,7 +3554,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
@@ -4184,32 +3564,32 @@
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.425" defaultRowHeight="12.75" outlineLevelRow="1" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="11.41015625" defaultRowHeight="12.7"/>
   <cols>
     <col min="1" max="1" width="55" customWidth="1"/>
-    <col min="2" max="2" width="45.425" customWidth="1"/>
+    <col min="2" max="2" width="45.41015625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="B1" t="s">
         <v>301</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>302</v>
-      </c>
-      <c r="C1" t="s">
-        <v>303</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="B2" t="s">
         <v>304</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>305</v>
-      </c>
-      <c r="C2" t="s">
-        <v>306</v>
       </c>
       <c r="D2" s="2"/>
     </row>
